--- a/medicine/Enfance/Liste_des_romans_de_Larry_Bash/Liste_des_romans_de_Larry_Bash.xlsx
+++ b/medicine/Enfance/Liste_des_romans_de_Larry_Bash/Liste_des_romans_de_Larry_Bash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La série Larry J. Bash  a connu dix titres, signés Lieutenant X, pseudonyme de Vladimir Volkoff, et parus dans la collection Bibliothèque verte chez Hachette.
@@ -512,7 +524,9 @@
           <t>Comment je suis devenu détective privé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parution : 1980.
 Intrigue : Larry Bash enquête avec M. Ney sur un cambriolage commis dans l’agence du vieux détective.</t>
@@ -543,7 +557,9 @@
           <t>Comment j'ai mené ma première enquête</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parution : 1re édition française : 1980. Illustrations de Robert Bressy. Réédition en 1988 (bib. verte no 601).  (ISBN 2-01-014403-1)
 Résumé détaillé :</t>
@@ -574,7 +590,9 @@
           <t>Comment j'ai été l'otage d'un tueur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parution : 1re édition française : 1980. Illustrations de Robert Bressy. Réédition en 1989 (bib. verte no 602).  (ISBN 2-01-015166-6)
 Résumé détaillé :</t>
@@ -605,7 +623,9 @@
           <t>Comment j'ai enquêté sur un assassinat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parution : 1re édition française : 1981. Illustrations de Robert Bressy. Réédition en 1989 (bib. verte no 603).  (ISBN 2-01-015455-X)
 Résumé détaillé :
@@ -637,7 +657,9 @@
           <t>Comment j'ai déterré un témoin capital</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Date de publication : 1981.
 Intrigue : Larry Bash enquête avec M. Ney sur l'enlèvement d'une jeune fille, Candy, dont le père, Herbert Blackstone, est député à la Chambre des représentants et doit prochainement donner son avis sur un important projet immobilier. Plusieurs proches de la jeune fille sont suspects, à commencer par son petit ami et par l'agent électoral du député.</t>
@@ -668,7 +690,9 @@
           <t>Comment j'ai aidé un faiseur de clair de lune</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Parution : 1re édition française : 1981. Illustrations de Robert Bressy.
 Thème : Dans cette aventure, Larry aide un « faiseur de clair de lune », c'est-à-dire un bouilleur de cru qui fabrique illégalement de l'alcool.
@@ -700,7 +724,9 @@
           <t>Comment j'ai volé un Picasso</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Date de publication : 1982.
 Intrigue : Larry Bash enquête avec M. Ney sur le vol d'un tableau de Picasso.</t>
@@ -731,7 +757,9 @@
           <t>Comment j'ai fait taire un maître chanteur</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Parution : 1re édition française : 1982. Illustrations de Robert Bressy.  (ISBN 2-01-008742-9)
 Résumé :</t>
@@ -762,7 +790,9 @@
           <t>Comment j'ai gagné la Guerre de Sécession</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Date de publication : 1983.
 Intrigue : Larry Bash enquête sur diverses dégradations commises au sein de la propriété d'une vieille dame qui croit revivre la période de la Guerre de Sécession.</t>
@@ -793,7 +823,9 @@
           <t>Comment j'ai capturé un fantôme</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Date de publication : 1984.
 Intrigue : M. Ney et Larry sont chargés par M. Mopey de découvrir l'identité de celui qui envoie des menaces de mort à son épouse. Celle-ci, qui est cardiaque, pourrait faire un infarctus si les envois devaient continuer. Mopey confie aux deux détectives qu'il pense que les menaces proviennent… d'un fantôme.</t>
